--- a/cotacaoDeMoedas-Produtos/Produtos - Preços Atualizados.xlsx
+++ b/cotacaoDeMoedas-Produtos/Produtos - Preços Atualizados.xlsx
@@ -512,16 +512,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>7.38</v>
+        <v>6.21</v>
       </c>
       <c r="E3" t="n">
-        <v>33210</v>
+        <v>27945</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>66420</v>
+        <v>55890</v>
       </c>
     </row>
     <row r="4">
@@ -593,16 +593,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>7.38</v>
+        <v>6.21</v>
       </c>
       <c r="E6" t="n">
-        <v>22140</v>
+        <v>18630</v>
       </c>
       <c r="F6" t="n">
         <v>1.9</v>
       </c>
       <c r="G6" t="n">
-        <v>42066</v>
+        <v>35397</v>
       </c>
     </row>
     <row r="7">
@@ -647,16 +647,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>456.81</v>
+        <v>456.7</v>
       </c>
       <c r="E8" t="n">
-        <v>9136.200000000001</v>
+        <v>9134</v>
       </c>
       <c r="F8" t="n">
         <v>1.15</v>
       </c>
       <c r="G8" t="n">
-        <v>10506.63</v>
+        <v>10504.1</v>
       </c>
     </row>
   </sheetData>
